--- a/docs/input.xlsx
+++ b/docs/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Documents\2 Forschung\20 HTA\06 Tools\Chord Diagram\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Sites/chord/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5403FFC5-2CC8-467B-8116-F757B344840A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09F50A7-60D2-434E-AA50-CD6D745BA4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7139B7E8-CBAF-C748-B190-630B9108EA14}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{7139B7E8-CBAF-C748-B190-630B9108EA14}"/>
   </bookViews>
   <sheets>
     <sheet name="Objekte" sheetId="1" r:id="rId1"/>
@@ -845,7 +845,7 @@
     </r>
   </si>
   <si>
-    <t>Lösungs-Skript</t>
+    <t>Lern-Lösungs-Skript</t>
   </si>
 </sst>
 </file>
@@ -855,7 +855,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1443,20 +1443,20 @@
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="37.625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="23.375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="4.125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="18.25" style="9" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="4.1640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" style="9" customWidth="1"/>
     <col min="8" max="8" width="15" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="10.875" style="9"/>
+    <col min="9" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="15.95" customHeight="1">
+    <row r="2" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="I2" s="24"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>2</v>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="I3" s="24"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="26">
         <v>3</v>
       </c>
@@ -1538,7 +1538,7 @@
       <c r="I4" s="17"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="26">
         <v>4</v>
       </c>
@@ -1557,7 +1557,7 @@
       <c r="I5" s="17"/>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="26">
         <v>5</v>
       </c>
@@ -1576,7 +1576,7 @@
       <c r="I6" s="17"/>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>6</v>
       </c>
@@ -1596,7 +1596,7 @@
       <c r="I7" s="17"/>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="26">
         <v>7</v>
       </c>
@@ -1615,7 +1615,7 @@
       <c r="I8" s="17"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="26">
         <v>8</v>
       </c>
@@ -1634,7 +1634,7 @@
       <c r="I9" s="17"/>
       <c r="J9" s="15"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="26">
         <v>9</v>
       </c>
@@ -1653,7 +1653,7 @@
       <c r="I10" s="17"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="26">
         <v>10</v>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="I11" s="17"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="26">
         <v>11</v>
       </c>
@@ -1693,7 +1693,7 @@
       <c r="I12" s="24"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="26">
         <v>12</v>
       </c>
@@ -1714,7 +1714,7 @@
       <c r="I13" s="24"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:10" ht="15.95" customHeight="1">
+    <row r="14" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26">
         <v>13</v>
       </c>
@@ -1735,7 +1735,7 @@
       <c r="I14" s="24"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="26">
         <v>14</v>
       </c>
@@ -1756,7 +1756,7 @@
       <c r="I15" s="24"/>
       <c r="J15" s="16"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="26">
         <v>15</v>
       </c>
@@ -1777,7 +1777,7 @@
       <c r="I16" s="24"/>
       <c r="J16" s="16"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="26">
         <v>16</v>
       </c>
@@ -1799,7 +1799,7 @@
       <c r="I17" s="24"/>
       <c r="J17" s="16"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="26">
         <v>17</v>
       </c>
@@ -1821,7 +1821,7 @@
       <c r="I18" s="24"/>
       <c r="J18" s="16"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="26">
         <v>18</v>
       </c>
@@ -1842,7 +1842,7 @@
       <c r="I19" s="24"/>
       <c r="J19" s="16"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="26">
         <v>19</v>
       </c>
@@ -1863,7 +1863,7 @@
       <c r="I20" s="24"/>
       <c r="J20" s="16"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="26">
         <v>20</v>
       </c>
@@ -1882,7 +1882,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="26">
         <v>21</v>
       </c>
@@ -1901,7 +1901,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="15"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -1920,7 +1920,7 @@
       <c r="I23" s="4"/>
       <c r="J23" s="15"/>
     </row>
-    <row r="24" spans="1:10" ht="15.95" customHeight="1">
+    <row r="24" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -1939,7 +1939,7 @@
       <c r="I24" s="4"/>
       <c r="J24" s="15"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -1958,7 +1958,7 @@
       <c r="I25" s="4"/>
       <c r="J25" s="15"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -1977,7 +1977,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="15"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -1996,7 +1996,7 @@
       <c r="I27" s="4"/>
       <c r="J27" s="15"/>
     </row>
-    <row r="28" spans="1:10" ht="15.95" customHeight="1">
+    <row r="28" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -2015,7 +2015,7 @@
       <c r="I28" s="4"/>
       <c r="J28" s="15"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -2034,7 +2034,7 @@
       <c r="I29" s="4"/>
       <c r="J29" s="15"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -2053,7 +2053,7 @@
       <c r="I30" s="4"/>
       <c r="J30" s="15"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -2072,7 +2072,7 @@
       <c r="I31" s="4"/>
       <c r="J31" s="15"/>
     </row>
-    <row r="32" spans="1:10" ht="15.95" customHeight="1">
+    <row r="32" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -2091,7 +2091,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="15"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -2110,7 +2110,7 @@
       <c r="I33" s="4"/>
       <c r="J33" s="15"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -2129,7 +2129,7 @@
       <c r="I34" s="4"/>
       <c r="J34" s="15"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -2148,7 +2148,7 @@
       <c r="I35" s="4"/>
       <c r="J35" s="15"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -2167,7 +2167,7 @@
       <c r="I36" s="4"/>
       <c r="J36" s="15"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -2186,7 +2186,7 @@
       <c r="I37" s="4"/>
       <c r="J37" s="15"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>37</v>
       </c>
@@ -2205,7 +2205,7 @@
       <c r="I38" s="4"/>
       <c r="J38" s="15"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -2224,7 +2224,7 @@
       <c r="I39" s="4"/>
       <c r="J39" s="15"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -2243,7 +2243,7 @@
       <c r="I40" s="4"/>
       <c r="J40" s="15"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="21">
         <v>40</v>
       </c>
@@ -2262,11 +2262,11 @@
       <c r="I41" s="4"/>
       <c r="J41" s="15"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="21">
         <v>41</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" t="s">
         <v>154</v>
       </c>
       <c r="C42" s="23" t="s">
@@ -2281,7 +2281,7 @@
       <c r="I42" s="4"/>
       <c r="J42" s="15"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="21">
         <v>42</v>
       </c>
@@ -2300,7 +2300,7 @@
       <c r="I43" s="4"/>
       <c r="J43" s="15"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="21">
         <v>43</v>
       </c>
@@ -2319,7 +2319,7 @@
       <c r="I44" s="4"/>
       <c r="J44" s="15"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="21">
         <v>44</v>
       </c>
@@ -2338,7 +2338,7 @@
       <c r="I45" s="4"/>
       <c r="J45" s="15"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="21">
         <v>45</v>
       </c>
@@ -2357,7 +2357,7 @@
       <c r="I46" s="4"/>
       <c r="J46" s="15"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="21">
         <v>46</v>
       </c>
@@ -2376,7 +2376,7 @@
       <c r="I47" s="4"/>
       <c r="J47" s="15"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="21">
         <v>47</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="21">
         <v>48</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="21">
         <v>49</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="21">
         <v>50</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="21">
         <v>51</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="21">
         <v>52</v>
       </c>
@@ -2478,18 +2478,18 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
       <c r="D54" s="32"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
       <c r="B55" s="23"/>
       <c r="D55" s="32"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
@@ -2512,30 +2512,30 @@
       <selection pane="bottomRight" activeCell="AM29" sqref="AM29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="7" customWidth="1"/>
-    <col min="3" max="10" width="5.625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="5.625" style="10" customWidth="1"/>
-    <col min="12" max="17" width="5.625" style="9" customWidth="1"/>
-    <col min="18" max="18" width="5.625" style="10" customWidth="1"/>
-    <col min="19" max="31" width="5.625" style="9" customWidth="1"/>
-    <col min="32" max="32" width="5.625" style="10" customWidth="1"/>
-    <col min="33" max="37" width="5.625" style="9" customWidth="1"/>
-    <col min="38" max="38" width="5.625" style="10" customWidth="1"/>
-    <col min="39" max="42" width="5.625" style="9" customWidth="1"/>
-    <col min="43" max="43" width="5.625" style="10" customWidth="1"/>
-    <col min="44" max="46" width="5.625" style="9" customWidth="1"/>
-    <col min="47" max="47" width="5.625" style="10" customWidth="1"/>
-    <col min="48" max="53" width="5.625" style="9" customWidth="1"/>
-    <col min="54" max="54" width="5.625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="7" customWidth="1"/>
+    <col min="3" max="10" width="5.6640625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" style="10" customWidth="1"/>
+    <col min="12" max="17" width="5.6640625" style="9" customWidth="1"/>
+    <col min="18" max="18" width="5.6640625" style="10" customWidth="1"/>
+    <col min="19" max="31" width="5.6640625" style="9" customWidth="1"/>
+    <col min="32" max="32" width="5.6640625" style="10" customWidth="1"/>
+    <col min="33" max="37" width="5.6640625" style="9" customWidth="1"/>
+    <col min="38" max="38" width="5.6640625" style="10" customWidth="1"/>
+    <col min="39" max="42" width="5.6640625" style="9" customWidth="1"/>
+    <col min="43" max="43" width="5.6640625" style="10" customWidth="1"/>
+    <col min="44" max="46" width="5.6640625" style="9" customWidth="1"/>
+    <col min="47" max="47" width="5.6640625" style="10" customWidth="1"/>
+    <col min="48" max="53" width="5.6640625" style="9" customWidth="1"/>
+    <col min="54" max="54" width="5.6640625" style="10" customWidth="1"/>
     <col min="55" max="55" width="6" style="9" customWidth="1"/>
-    <col min="56" max="59" width="6.625" style="9" customWidth="1"/>
+    <col min="56" max="59" width="6.6640625" style="9" customWidth="1"/>
     <col min="60" max="16384" width="11" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="7" customFormat="1">
+    <row r="1" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="6">
@@ -2747,7 +2747,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:59" s="33" customFormat="1" ht="90" customHeight="1">
+    <row r="2" spans="1:59" s="33" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="34"/>
       <c r="C2" s="40" t="str">
         <f>+B3</f>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AQ2" s="41" t="str">
         <f>+B43</f>
-        <v>Lösungs-Skript</v>
+        <v>Lern-Lösungs-Skript</v>
       </c>
       <c r="AR2" s="40" t="str">
         <f>+B44</f>
@@ -2970,7 +2970,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A3" s="26">
         <f>IF(Objekte!A2="","",Objekte!A2)</f>
         <v>1</v>
@@ -3178,7 +3178,7 @@
         <v>20.069686411149824</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" s="26">
         <f>IF(Objekte!A3="","",Objekte!A3)</f>
         <v>2</v>
@@ -3387,7 +3387,7 @@
         <v>11.289198606271777</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" s="26">
         <f>IF(Objekte!A4="","",Objekte!A4)</f>
         <v>3</v>
@@ -3610,7 +3610,7 @@
         <v>8.7804878048780495</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" s="26">
         <f>IF(Objekte!A5="","",Objekte!A5)</f>
         <v>4</v>
@@ -3826,7 +3826,7 @@
         <v>6.2717770034843205</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" s="26">
         <f>IF(Objekte!A6="","",Objekte!A6)</f>
         <v>5</v>
@@ -4053,7 +4053,7 @@
         <v>3.7630662020905925</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" s="26">
         <f>IF(Objekte!A7="","",Objekte!A7)</f>
         <v>6</v>
@@ -4275,7 +4275,7 @@
         <v>6.2717770034843205</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" s="26">
         <f>IF(Objekte!A8="","",Objekte!A8)</f>
         <v>7</v>
@@ -4500,7 +4500,7 @@
         <v>6.2717770034843205</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" s="26">
         <f>IF(Objekte!A9="","",Objekte!A9)</f>
         <v>8</v>
@@ -4717,7 +4717,7 @@
         <v>20.069686411149824</v>
       </c>
     </row>
-    <row r="11" spans="1:59" s="3" customFormat="1">
+    <row r="11" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="36">
         <f>IF(Objekte!A10="","",Objekte!A10)</f>
         <v>9</v>
@@ -4941,7 +4941,7 @@
         <v>3.7630662020905925</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" s="26">
         <f>IF(Objekte!A11="","",Objekte!A11)</f>
         <v>10</v>
@@ -5158,7 +5158,7 @@
         <v>22.578397212543553</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" s="26">
         <f>IF(Objekte!A12="","",Objekte!A12)</f>
         <v>11</v>
@@ -5372,7 +5372,7 @@
         <v>17.560975609756099</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" s="26">
         <f>IF(Objekte!A13="","",Objekte!A13)</f>
         <v>12</v>
@@ -5599,7 +5599,7 @@
         <v>8.7804878048780495</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" s="26">
         <f>IF(Objekte!A14="","",Objekte!A14)</f>
         <v>13</v>
@@ -5828,7 +5828,7 @@
         <v>6.2717770034843205</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A16" s="26">
         <f>IF(Objekte!A15="","",Objekte!A15)</f>
         <v>14</v>
@@ -6060,7 +6060,7 @@
         <v>2.508710801393728</v>
       </c>
     </row>
-    <row r="17" spans="1:59">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A17" s="26">
         <f>IF(Objekte!A16="","",Objekte!A16)</f>
         <v>15</v>
@@ -6289,7 +6289,7 @@
         <v>6.2717770034843205</v>
       </c>
     </row>
-    <row r="18" spans="1:59" s="3" customFormat="1">
+    <row r="18" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="36">
         <f>IF(Objekte!A17="","",Objekte!A17)</f>
         <v>16</v>
@@ -6516,7 +6516,7 @@
         <v>8.7804878048780495</v>
       </c>
     </row>
-    <row r="19" spans="1:59">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A19" s="26">
         <f>IF(Objekte!A18="","",Objekte!A18)</f>
         <v>17</v>
@@ -6747,7 +6747,7 @@
         <v>15.05226480836237</v>
       </c>
     </row>
-    <row r="20" spans="1:59">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A20" s="26">
         <f>IF(Objekte!A19="","",Objekte!A19)</f>
         <v>18</v>
@@ -6975,7 +6975,7 @@
         <v>6.2717770034843205</v>
       </c>
     </row>
-    <row r="21" spans="1:59">
+    <row r="21" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A21" s="26">
         <f>IF(Objekte!A20="","",Objekte!A20)</f>
         <v>19</v>
@@ -7207,7 +7207,7 @@
         <v>3.7630662020905925</v>
       </c>
     </row>
-    <row r="22" spans="1:59">
+    <row r="22" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A22" s="26">
         <f>IF(Objekte!A21="","",Objekte!A21)</f>
         <v>20</v>
@@ -7440,7 +7440,7 @@
         <v>1.254355400696864</v>
       </c>
     </row>
-    <row r="23" spans="1:59">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A23" s="26">
         <f>IF(Objekte!A22="","",Objekte!A22)</f>
         <v>21</v>
@@ -7672,7 +7672,7 @@
         <v>3.7630662020905925</v>
       </c>
     </row>
-    <row r="24" spans="1:59">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A24" s="26">
         <f>IF(Objekte!A23="","",Objekte!A23)</f>
         <v>22</v>
@@ -7899,7 +7899,7 @@
         <v>16.306620209059233</v>
       </c>
     </row>
-    <row r="25" spans="1:59">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A25" s="26">
         <f>IF(Objekte!A24="","",Objekte!A24)</f>
         <v>23</v>
@@ -8132,7 +8132,7 @@
         <v>2.508710801393728</v>
       </c>
     </row>
-    <row r="26" spans="1:59">
+    <row r="26" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A26" s="26">
         <f>IF(Objekte!A25="","",Objekte!A25)</f>
         <v>24</v>
@@ -8365,7 +8365,7 @@
         <v>1.254355400696864</v>
       </c>
     </row>
-    <row r="27" spans="1:59">
+    <row r="27" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A27" s="26">
         <f>IF(Objekte!A26="","",Objekte!A26)</f>
         <v>25</v>
@@ -8598,7 +8598,7 @@
         <v>1.254355400696864</v>
       </c>
     </row>
-    <row r="28" spans="1:59">
+    <row r="28" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A28" s="26">
         <f>IF(Objekte!A27="","",Objekte!A27)</f>
         <v>26</v>
@@ -8829,7 +8829,7 @@
         <v>10.034843205574912</v>
       </c>
     </row>
-    <row r="29" spans="1:59">
+    <row r="29" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A29" s="26">
         <f>IF(Objekte!A28="","",Objekte!A28)</f>
         <v>27</v>
@@ -9062,7 +9062,7 @@
         <v>2.508710801393728</v>
       </c>
     </row>
-    <row r="30" spans="1:59">
+    <row r="30" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A30" s="26">
         <f>IF(Objekte!A29="","",Objekte!A29)</f>
         <v>28</v>
@@ -9295,7 +9295,7 @@
         <v>1.254355400696864</v>
       </c>
     </row>
-    <row r="31" spans="1:59">
+    <row r="31" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A31" s="26">
         <f>IF(Objekte!A30="","",Objekte!A30)</f>
         <v>29</v>
@@ -9528,7 +9528,7 @@
         <v>1.254355400696864</v>
       </c>
     </row>
-    <row r="32" spans="1:59" s="3" customFormat="1">
+    <row r="32" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="36">
         <f>IF(Objekte!A31="","",Objekte!A31)</f>
         <v>30</v>
@@ -9760,7 +9760,7 @@
         <v>1.254355400696864</v>
       </c>
     </row>
-    <row r="33" spans="1:59">
+    <row r="33" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A33" s="26">
         <f>IF(Objekte!A32="","",Objekte!A32)</f>
         <v>31</v>
@@ -9989,7 +9989,7 @@
         <v>5.0174216027874561</v>
       </c>
     </row>
-    <row r="34" spans="1:59">
+    <row r="34" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A34" s="26">
         <f>IF(Objekte!A33="","",Objekte!A33)</f>
         <v>32</v>
@@ -10218,7 +10218,7 @@
         <v>7.526132404181185</v>
       </c>
     </row>
-    <row r="35" spans="1:59">
+    <row r="35" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A35" s="26">
         <f>IF(Objekte!A34="","",Objekte!A34)</f>
         <v>33</v>
@@ -10447,7 +10447,7 @@
         <v>5.0174216027874561</v>
       </c>
     </row>
-    <row r="36" spans="1:59">
+    <row r="36" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A36" s="26">
         <f>IF(Objekte!A35="","",Objekte!A35)</f>
         <v>34</v>
@@ -10678,7 +10678,7 @@
         <v>7.526132404181185</v>
       </c>
     </row>
-    <row r="37" spans="1:59">
+    <row r="37" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A37" s="26">
         <f>IF(Objekte!A36="","",Objekte!A36)</f>
         <v>35</v>
@@ -10909,7 +10909,7 @@
         <v>8.7804878048780495</v>
       </c>
     </row>
-    <row r="38" spans="1:59" s="3" customFormat="1">
+    <row r="38" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="36">
         <f>IF(Objekte!A37="","",Objekte!A37)</f>
         <v>36</v>
@@ -11140,7 +11140,7 @@
         <v>6.2717770034843205</v>
       </c>
     </row>
-    <row r="39" spans="1:59">
+    <row r="39" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A39" s="26">
         <f>IF(Objekte!A38="","",Objekte!A38)</f>
         <v>37</v>
@@ -11373,7 +11373,7 @@
         <v>2.508710801393728</v>
       </c>
     </row>
-    <row r="40" spans="1:59">
+    <row r="40" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A40" s="26">
         <f>IF(Objekte!A39="","",Objekte!A39)</f>
         <v>38</v>
@@ -11606,7 +11606,7 @@
         <v>2.508710801393728</v>
       </c>
     </row>
-    <row r="41" spans="1:59">
+    <row r="41" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A41" s="26">
         <f>IF(Objekte!A40="","",Objekte!A40)</f>
         <v>39</v>
@@ -11839,7 +11839,7 @@
         <v>3.7630662020905925</v>
       </c>
     </row>
-    <row r="42" spans="1:59">
+    <row r="42" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A42" s="26">
         <f>IF(Objekte!A41="","",Objekte!A41)</f>
         <v>40</v>
@@ -12072,14 +12072,14 @@
         <v>1.254355400696864</v>
       </c>
     </row>
-    <row r="43" spans="1:59" s="3" customFormat="1">
+    <row r="43" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="36">
         <f>IF(Objekte!A42="","",Objekte!A42)</f>
         <v>41</v>
       </c>
       <c r="B43" s="37" t="str">
         <f>IF(Objekte!B42="","",Objekte!B42)</f>
-        <v>Lösungs-Skript</v>
+        <v>Lern-Lösungs-Skript</v>
       </c>
       <c r="C43" s="13" t="str">
         <f t="shared" si="18"/>
@@ -12305,7 +12305,7 @@
         <v>1.254355400696864</v>
       </c>
     </row>
-    <row r="44" spans="1:59">
+    <row r="44" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A44" s="26">
         <f>IF(Objekte!A43="","",Objekte!A43)</f>
         <v>42</v>
@@ -12517,7 +12517,7 @@
         <v>18.815331010452962</v>
       </c>
     </row>
-    <row r="45" spans="1:59">
+    <row r="45" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A45" s="26">
         <f>IF(Objekte!A44="","",Objekte!A44)</f>
         <v>43</v>
@@ -12729,7 +12729,7 @@
         <v>11.289198606271777</v>
       </c>
     </row>
-    <row r="46" spans="1:59">
+    <row r="46" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A46" s="26">
         <f>IF(Objekte!A45="","",Objekte!A45)</f>
         <v>44</v>
@@ -12941,7 +12941,7 @@
         <v>1.254355400696864</v>
       </c>
     </row>
-    <row r="47" spans="1:59" s="3" customFormat="1">
+    <row r="47" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="36">
         <f>IF(Objekte!A46="","",Objekte!A46)</f>
         <v>45</v>
@@ -13153,7 +13153,7 @@
         <v>5.0174216027874561</v>
       </c>
     </row>
-    <row r="48" spans="1:59">
+    <row r="48" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A48" s="26">
         <f>IF(Objekte!A47="","",Objekte!A47)</f>
         <v>46</v>
@@ -13386,7 +13386,7 @@
         <v>3.7630662020905925</v>
       </c>
     </row>
-    <row r="49" spans="1:60">
+    <row r="49" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A49" s="26">
         <f>IF(Objekte!A48="","",Objekte!A48)</f>
         <v>47</v>
@@ -13619,7 +13619,7 @@
         <v>15.05226480836237</v>
       </c>
     </row>
-    <row r="50" spans="1:60">
+    <row r="50" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A50" s="26">
         <f>IF(Objekte!A49="","",Objekte!A49)</f>
         <v>48</v>
@@ -13852,7 +13852,7 @@
         <v>2.508710801393728</v>
       </c>
     </row>
-    <row r="51" spans="1:60">
+    <row r="51" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A51" s="26">
         <f>IF(Objekte!A50="","",Objekte!A50)</f>
         <v>49</v>
@@ -14085,7 +14085,7 @@
         <v>5.0174216027874561</v>
       </c>
     </row>
-    <row r="52" spans="1:60">
+    <row r="52" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A52" s="26">
         <f>IF(Objekte!A51="","",Objekte!A51)</f>
         <v>50</v>
@@ -14318,7 +14318,7 @@
         <v>2.508710801393728</v>
       </c>
     </row>
-    <row r="53" spans="1:60">
+    <row r="53" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A53" s="26">
         <f>IF(Objekte!A52="","",Objekte!A52)</f>
         <v>51</v>
@@ -14551,7 +14551,7 @@
         <v>8.7804878048780495</v>
       </c>
     </row>
-    <row r="54" spans="1:60" s="3" customFormat="1">
+    <row r="54" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="36">
         <f>IF(Objekte!A53="","",Objekte!A53)</f>
         <v>52</v>
@@ -14784,7 +14784,7 @@
         <v>7.526132404181185</v>
       </c>
     </row>
-    <row r="55" spans="1:60">
+    <row r="55" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="5"/>
       <c r="BD55" s="23">
@@ -14804,7 +14804,7 @@
         <v>359.99999999999983</v>
       </c>
     </row>
-    <row r="56" spans="1:60">
+    <row r="56" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="5"/>
       <c r="C56" s="21">
@@ -15024,7 +15024,7 @@
         <v>update!</v>
       </c>
     </row>
-    <row r="57" spans="1:60">
+    <row r="57" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="B57" s="5"/>
       <c r="C57" s="9" t="s">
@@ -15042,7 +15042,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:60">
+    <row r="58" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="5"/>
       <c r="C58" s="9" t="s">
@@ -15053,7 +15053,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:60">
+    <row r="59" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="5"/>
       <c r="C59" s="9" t="s">
@@ -15064,11 +15064,11 @@
         <v>2.8653846153846154</v>
       </c>
     </row>
-    <row r="60" spans="1:60">
+    <row r="60" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="5"/>
     </row>
-    <row r="61" spans="1:60">
+    <row r="61" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="5"/>
     </row>
@@ -15096,21 +15096,21 @@
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5625" customWidth="1"/>
-    <col min="2" max="2" width="4.5625" customWidth="1"/>
-    <col min="3" max="3" width="10.5625" customWidth="1"/>
-    <col min="4" max="4" width="4.5625" customWidth="1"/>
-    <col min="5" max="5" width="33.5625" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="4.5" customWidth="1"/>
+    <col min="5" max="5" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="44" t="s">
         <v>127</v>
       </c>
@@ -15119,7 +15119,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>132</v>
       </c>
@@ -15127,7 +15127,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -15135,7 +15135,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -15143,7 +15143,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -15151,7 +15151,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>139</v>
       </c>
@@ -15159,7 +15159,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>137</v>
       </c>
@@ -15167,7 +15167,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>138</v>
       </c>
@@ -15175,7 +15175,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>130</v>
       </c>
@@ -15189,7 +15189,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>129</v>
       </c>
@@ -15203,7 +15203,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -15217,7 +15217,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>139</v>
       </c>
@@ -15231,7 +15231,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -15245,7 +15245,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>136</v>
       </c>
@@ -15259,7 +15259,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>139</v>
       </c>
@@ -15273,7 +15273,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>129</v>
       </c>
@@ -15287,7 +15287,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>129</v>
       </c>
@@ -15301,7 +15301,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -15315,7 +15315,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>130</v>
       </c>
@@ -15329,7 +15329,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -15343,7 +15343,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>132</v>
       </c>
@@ -15357,7 +15357,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>130</v>
       </c>
@@ -15371,7 +15371,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>136</v>
       </c>
@@ -15385,10 +15385,10 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" s="45"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" s="45" t="s">
         <v>29</v>
       </c>
@@ -15399,7 +15399,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>132</v>
       </c>
@@ -15416,7 +15416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>130</v>
       </c>
@@ -15433,7 +15433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>129</v>
       </c>
@@ -15450,7 +15450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>136</v>
       </c>
@@ -15467,7 +15467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>139</v>
       </c>
@@ -15484,7 +15484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>137</v>
       </c>
@@ -15501,7 +15501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>138</v>
       </c>

--- a/docs/input.xlsx
+++ b/docs/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Documents\7 Privat\Pöcking\2022 PöckingErleben\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01DFFAF-4E90-40DF-9A20-E1A5F1F21C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D587325-21D0-4351-B7F2-58A73A88B305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7139B7E8-CBAF-C748-B190-630B9108EA14}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="132">
   <si>
     <t>Name</t>
   </si>
@@ -769,6 +769,15 @@
   <si>
     <t>Erwachsene</t>
   </si>
+  <si>
+    <t>Samstag, 14. Mai 2022</t>
+  </si>
+  <si>
+    <t>Samstag, 23. Juli 2022</t>
+  </si>
+  <si>
+    <t>Sonntag, 24. Juli 2022</t>
+  </si>
 </sst>
 </file>
 
@@ -861,7 +870,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -983,6 +992,9 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2343,11 +2355,11 @@
       <c r="A54" s="21">
         <v>53</v>
       </c>
-      <c r="B54" s="46">
-        <v>44695</v>
+      <c r="B54" s="46" t="s">
+        <v>120</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D54" s="31" t="s">
         <v>4</v>
@@ -2360,11 +2372,11 @@
       <c r="A55" s="21">
         <v>54</v>
       </c>
-      <c r="B55" s="46">
-        <v>44765</v>
+      <c r="B55" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D55" s="31" t="s">
         <v>4</v>
@@ -2377,11 +2389,11 @@
       <c r="A56" s="21">
         <v>55</v>
       </c>
-      <c r="B56" s="46">
-        <v>44766</v>
+      <c r="B56" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D56" s="31" t="s">
         <v>4</v>
@@ -2471,10 +2483,10 @@
   <dimension ref="A1:BP69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AV24" sqref="AV24"/>
+      <selection pane="bottomRight" activeCell="AU50" sqref="AU50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2840,14 +2852,14 @@
       <c r="BB2" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="BC2" s="47">
-        <v>44695</v>
-      </c>
-      <c r="BD2" s="47">
-        <v>44765</v>
-      </c>
-      <c r="BE2" s="49">
-        <v>44766</v>
+      <c r="BC2" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD2" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE2" s="49" t="s">
+        <v>122</v>
       </c>
       <c r="BF2" s="39" t="s">
         <v>124</v>
@@ -16348,8 +16360,8 @@
       <c r="A55" s="26">
         <v>53</v>
       </c>
-      <c r="B55" s="46">
-        <v>44695</v>
+      <c r="B55" s="50" t="s">
+        <v>120</v>
       </c>
       <c r="C55" s="11" t="str">
         <f t="shared" si="19"/>
@@ -16597,8 +16609,8 @@
       <c r="A56" s="26">
         <v>54</v>
       </c>
-      <c r="B56" s="46">
-        <v>44765</v>
+      <c r="B56" s="46" t="s">
+        <v>121</v>
       </c>
       <c r="C56" s="11" t="str">
         <f t="shared" si="19"/>
@@ -16846,8 +16858,8 @@
       <c r="A57" s="35">
         <v>55</v>
       </c>
-      <c r="B57" s="48">
-        <v>44766</v>
+      <c r="B57" s="48" t="s">
+        <v>122</v>
       </c>
       <c r="C57" s="13" t="str">
         <f t="shared" si="19"/>
